--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -575,7 +575,7 @@
         <v>44420.41430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45327.48333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44546</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45756.45313657408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45772.89230324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45766.47494212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44979</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45915.58710648148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>45841.38553240741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45678.65314814815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44879</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45723.48199074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44278.90318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44239</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44440.45909722222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44602.48578703704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44566.56325231482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44628</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44421</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44853.34524305556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44788.54672453704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44459.59157407407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>44473.48329861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44246.36898148148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>44557</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44284.59857638889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44608</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44258</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44831.67644675926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44879.67621527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44852.43765046296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44480.57546296297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44523</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>44840.60211805555</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44770</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44558.65778935186</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44425.43228009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44840.57934027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44515.3962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44729.60201388889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44753.47351851852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44600.34596064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44858</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44854.45015046297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44607.64086805555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44629</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44361</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44361</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44295</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44438</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44286.33185185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44239</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44496.57613425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44315</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44449.48881944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44456.48791666667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44363.42813657408</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44356.42612268519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>44436.45430555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44420.41239583334</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44257</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44473.48482638889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44473.57203703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44273</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44539</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44760.57719907408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44776.50158564815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44848.54179398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44469.94690972222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44776.49858796296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44440.46774305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44820</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44327</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44496.35853009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44446</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44557</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44278.37649305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44449</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44385</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44572.3869212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44341.51976851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44525</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44757.40743055556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44332.92143518518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44319</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44825</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44854.44881944444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44341</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44502.35916666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44606.39925925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>44616</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>44477.53445601852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>44559</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44706.6987962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44662.5583449074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44678.46045138889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44341.51594907408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44425.85980324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44929.63917824074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45597.62469907408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45386.46412037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45328.62417824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45618.38481481482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45723.38173611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45607.45059027777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>45357.36013888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>45166</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45567</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45567</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>45735.54914351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>45036</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>45728</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>45728</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>45684.38538194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>45684.39165509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>45198</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>45642</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45520</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>44869</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45394.65023148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44616.4834375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>45664.46695601852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>45358.39027777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45238.35519675926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45687.51572916667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45113.6524074074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45772.89429398148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45142.41402777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45306</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45093.51523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45019</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45712.50383101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45569.61069444445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45250.54054398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45714.56214120371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45315.616875</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45635.69366898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45769.45645833333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44943.65971064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45363</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45530.64133101852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44909</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>45267</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44936</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>45735.54525462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>45735.55263888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45483</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>45161.39702546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>45761.4737037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>45553.57829861111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45200.66553240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44851</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45328.80174768518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45328.80728009259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45308.49018518518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45335</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45512.60466435185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45187</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45734.605625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45674.5031712963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>45519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>45729.573125</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>45726.32118055555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44859.48170138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>45803.58403935185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44981</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>45208.606875</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45264.49295138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>45763.63662037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45853.83719907407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45800.27915509259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>45800.28173611111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>45439</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>45885.84417824074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45750</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44971.56957175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45804</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45583</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44678.49657407407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45887.55962962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45807.39603009259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45807.39693287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45887</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45888</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45180.8941087963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>45811.56231481482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45888</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45531</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45670.65815972222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45853.80958333334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45889.56239583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45785.48119212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>45608</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>45664.46590277777</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>45812.85927083333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45891.47547453704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45730.80828703703</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>45245.36645833333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45524.5453125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>45894.48487268519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>45894.50856481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>45572.54422453704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>45572.54723379629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>45896.44340277778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45664.56483796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45221.80592592592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44903.37894675926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>45567</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>45807.39909722222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45898.60689814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45649</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45194.62434027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>44846.47868055556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>45758.38741898148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>45819.49122685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>45900.51168981481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>45820</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>45446.5096412037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>45189.343125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>44956.4115625</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>45902.35972222222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>44602</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45203.71078703704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45758.38935185185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45632.45001157407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44642</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44642</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45637.5841087963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45905.46733796296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45825.51342592593</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45825.58298611111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45610.54395833334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45824.50715277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45827.56622685185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45827.6015625</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45827.49108796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44577.50803240741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45915.59814814815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45915.59641203703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>45915.59488425926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>45826.73297453704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>45915.3867824074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>45827</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45587.85671296297</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45587.87516203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45912.35192129629</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45826</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45912.52409722222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45915.39211805556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44566.53696759259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>45917.483125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>45167.53902777778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>45758.42807870371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>45917.63546296296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44727</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>45917.67140046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45069.45675925926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>45917.65636574074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45919.70690972222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45919.70596064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45590.45354166667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45919.48847222222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45371.57876157408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45831.53251157407</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45831.54814814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45923.64752314815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45923.64351851852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45923.66038194444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45832.84189814814</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45832.85254629629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45922.49980324074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45923.65631944445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45923.65457175926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45832.79658564815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45923.66246527778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45923.66396990741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45923.37681712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45833.61384259259</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45833.40255787037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45832.74289351852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45833.6091087963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45833.61652777778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45667.48127314815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45924.45631944444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45924.45824074074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45924.45907407408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45924.46025462963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45924.45655092593</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45924.4637037037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>45203.54998842593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>45805.38206018518</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44840</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45659.88552083333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45567</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45562.56664351852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>45930.56997685185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45217</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45328.82097222222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45933</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45245.84946759259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45324</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45936.7499537037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44722</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>45841.37010416666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>45841.37292824074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>45670.65989583333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>45936.4841087963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>45191.44642361111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45841.34400462963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>45264.6027662037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>45841.36141203704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45841.39032407408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>45841.39175925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45841.40001157407</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45841.40145833333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45841</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>45841.40612268518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45936</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>45936</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45091</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45841.3752662037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45841.38357638889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45841.39916666667</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44494.45533564815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45937.42376157407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45841</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45841.37609953704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45841.38165509259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45841.38238425926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45845.68017361111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45252.34416666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45938.62496527778</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>45678.57498842593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>45887.41344907408</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44722</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45887.40935185185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>45077</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>45575</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44984.81905092593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>45945.6556712963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44470.33744212963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45945.65668981482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45509.36181712963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45945.51461805555</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45586.46261574074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>45604.35873842592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>45946.55384259259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45175</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45851.40002314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45851.40489583334</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45566.58208333333</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>45853.84069444444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>45853.83872685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>45642.63851851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>45853.80796296296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>45748.46391203703</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44823</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>45208.61528935185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>45856.40608796296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>45856.40981481481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>45812.86350694444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45959</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45864.57112268519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>45868</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45868</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45868.45327546296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>45124</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>45790.38430555556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45802.92633101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>45957.55767361111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45873.4584837963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44473</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45684.38679398148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>45915.58923611111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>45873.3636574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44966</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>45875.716875</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>45873.48230324074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>45274</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45957.77112268518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45718.42078703704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45957.77280092592</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45959.57356481482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>45957.77527777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>45957.77659722222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>45915.59313657408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45229.31146990741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45876</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45604.63623842593</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45876.53638888889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45877.43789351852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45102.75549768518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44461.92769675926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45149</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45965.5946412037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45965.61563657408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45880</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>44931.6290625</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45965.62260416667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45965.63686342593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45965.59960648148</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>45965.6125</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45684.64578703704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>45044.34604166666</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>45966</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45239.45123842593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45713.62856481481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45713.63297453704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>45966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26261,7 +26261,7 @@
         <v>45320.63027777777</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>45967.35996527778</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45967.36096064815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45509.54403935185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45971.5106712963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45971.61238425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45971</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45971</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45261.48959490741</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45971.50793981482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45971</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45971.61780092592</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44249</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44993.46795138889</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45972.60884259259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>45972</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>45676.7283912037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45763.66113425926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45576.37633101852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45974.3296875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45975.28524305556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45975.53834490741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>44882</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45112.41413194445</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45667</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45713.62260416667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45978.48710648148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45105.33157407407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45105.33609953704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45978.48587962963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45604</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45043</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44270.51327546296</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45372</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45400.518125</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45981.48473379629</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45221</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45981.48684027778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45642.55597222222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44970.42385416666</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45272.7147337963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45985.47707175926</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45985.48043981481</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45692</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45369.36841435185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44998</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45986.73975694444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>44278</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45987.5032175926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45986.74592592593</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44320.4940625</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45987</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45987</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>44608</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45986.73809027778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45713.62721064815</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>46030.61541666667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>46031.38675925926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45989.57790509259</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45446.56206018518</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45357</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>45707.31686342593</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45707.32047453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>46031.40447916667</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>46030.58255787037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>44642</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45756.45248842592</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>46034.45233796296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>46034.48707175926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>46034.49576388889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>46034.50118055556</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45993.31182870371</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45993.31612268519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>46029.43209490741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45763.68064814815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45496.4336574074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>46037.34221064814</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45264</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44985</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>45021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45995.5971412037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>45705.65399305556</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31042,7 +31042,7 @@
         <v>45401</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>46030.63122685185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44557</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>45278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44470</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45029.47266203703</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>44539</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>46038.4406712963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>46038.53915509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45160.4716087963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>46038.43708333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>45687.51660879629</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31731,7 +31731,7 @@
         <v>44928.46545138889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>45999.42320601852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45607.57563657407</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31902,7 +31902,7 @@
         <v>46038.54834490741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>46035.60658564815</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>46042.35212962963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>46042.35530092593</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>45608.42292824074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>45572.54373842593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45572.54646990741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45558</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>46042.35357638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>45622.57844907408</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45200</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>46045.62228009259</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44686.45782407407</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>46045.62143518519</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>46003.54226851852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44942.3762037037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45414.55210648148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45664.46778935185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>46001.90171296296</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>46001.91138888889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>46001.91543981482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45274</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>46044.46630787037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>46001.89836805555</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>46045.59565972222</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45721.62189814815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>46045.61560185185</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>46007.50670138889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44797.4621412037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>45302</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45589.50008101852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>46006.51974537037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45701.66458333333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>46006.62721064815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>46006.65814814815</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>46007.50526620371</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>46049.57646990741</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45505</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34202,7 +34202,7 @@
         <v>45267.58851851852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>45204.35377314815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45264.59965277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34373,7 +34373,7 @@
         <v>45007.6435300926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>46050</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>46008.41601851852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>45154</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34601,7 +34601,7 @@
         <v>45443.33925925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45106.56295138889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>46055.38478009259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34772,7 +34772,7 @@
         <v>45302</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34829,7 +34829,7 @@
         <v>44652</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34886,7 +34886,7 @@
         <v>46010.51440972222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34943,7 +34943,7 @@
         <v>45072.47188657407</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>45271.75553240741</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45162.47753472222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45162.49752314815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45769.48971064815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45308</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45204.53039351852</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45475.84454861111</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45474.56277777778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>46057.70984953704</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>46057.71150462963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>44994.55994212963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45509.55278935185</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45509.41997685185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45722.31850694444</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45308.41804398148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45720.30297453704</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105.49190972222</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45105.49546296296</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45678.61195601852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45631.42819444444</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45012</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>45078</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45539.67039351852</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45357.36957175926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45701.97775462963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45649</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>45069.46366898148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>45763.41162037037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>44846</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>45517.62291666667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44235</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>45713.62402777778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44526</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>45705.65043981482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>45371.57340277778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45322</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>45238</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>45160.47324074074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>45219</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>45223</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45299</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>45224.29059027778</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45205</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44313</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>45567</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37615,7 +37615,7 @@
         <v>44501.34291666667</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>45114</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37729,7 +37729,7 @@
         <v>45674.39175925926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         <v>45674.41278935185</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37843,7 +37843,7 @@
         <v>45463.4815625</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
         <v>44278</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>45563.50743055555</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44587.44241898148</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>45243.43180555556</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>45243.44850694444</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45174</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44559.38648148148</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>45278</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>45091</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>45496.43035879629</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45200.66200231481</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>45223</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44820</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>45170</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>45684.38798611111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>45684.39041666667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>45258.65023148148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>45392.52753472222</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>45093.91306712963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45372.50608796296</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45645.55663194445</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45406.60965277778</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45275</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>45764.44802083333</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45664.5633912037</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>45596.56410879629</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>45194</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39469,7 +39469,7 @@
         <v>44729</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39526,7 +39526,7 @@
         <v>45575</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>44949.38756944444</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39640,7 +39640,7 @@
         <v>45270.27535879629</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39697,7 +39697,7 @@
         <v>44890</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         <v>45105.49415509259</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39811,7 +39811,7 @@
         <v>45674.55912037037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39868,7 +39868,7 @@
         <v>45009</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39925,7 +39925,7 @@
         <v>45688</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39982,7 +39982,7 @@
         <v>45554.5991087963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>45721.47923611111</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40096,7 +40096,7 @@
         <v>45188.56572916666</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40153,7 +40153,7 @@
         <v>45718.4666087963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>45547.28552083333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45245</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40324,7 +40324,7 @@
         <v>44949</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40381,7 +40381,7 @@
         <v>45243.44351851852</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40438,7 +40438,7 @@
         <v>45558.48805555556</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40495,7 +40495,7 @@
         <v>44553</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40552,7 +40552,7 @@
         <v>44553</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40609,7 +40609,7 @@
         <v>45701.55280092593</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40666,7 +40666,7 @@
         <v>45684.38881944444</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40723,7 +40723,7 @@
         <v>44957.30019675926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40780,7 +40780,7 @@
         <v>45393.4815625</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40837,7 +40837,7 @@
         <v>45713.62552083333</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40899,7 +40899,7 @@
         <v>45755.43791666667</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40956,7 +40956,7 @@
         <v>45173</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         <v>45343.28386574074</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41070,7 +41070,7 @@
         <v>45343.30072916667</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41127,7 +41127,7 @@
         <v>45188.38519675926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41184,7 +41184,7 @@
         <v>45167</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41241,7 +41241,7 @@
         <v>45566.61018518519</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41298,7 +41298,7 @@
         <v>44805.40015046296</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41355,7 +41355,7 @@
         <v>44698</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41412,7 +41412,7 @@
         <v>45755.42185185185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41469,7 +41469,7 @@
         <v>44936</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41526,7 +41526,7 @@
         <v>45044.55335648148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>45278</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>45607.43128472222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>45687.4334375</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>45279.3218287037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41811,7 +41811,7 @@
         <v>44699.66025462963</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41868,7 +41868,7 @@
         <v>45197</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41925,7 +41925,7 @@
         <v>45197.63068287037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41982,7 +41982,7 @@
         <v>45146</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42039,7 +42039,7 @@
         <v>45271</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>45328.8227662037</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>45265.51501157408</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44998</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44998</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>45036.34731481481</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         <v>45037.30505787037</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42443,7 +42443,7 @@
         <v>45176</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42505,7 +42505,7 @@
         <v>45777.66141203704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>45783.60868055555</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45589.92590277778</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>45468</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         <v>45785.44539351852</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>45785.4494675926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>45428.22497685185</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>45547.27622685185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>45786.47188657407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>45243.44006944444</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>45445</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>45775.50077546296</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>45790.58230324074</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43246,7 +43246,7 @@
         <v>45723.62244212963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43303,7 +43303,7 @@
         <v>45561.4999537037</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43360,7 +43360,7 @@
         <v>45642</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43417,7 +43417,7 @@
         <v>45792.95465277778</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43474,7 +43474,7 @@
         <v>45796.58666666667</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43531,7 +43531,7 @@
         <v>45797.39555555556</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43588,7 +43588,7 @@
         <v>45796.81549768519</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -575,7 +575,7 @@
         <v>44420.41430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45327.48333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44546</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45756.45313657408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45772.89230324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45766.47494212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44979</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45915.58710648148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>45841.38553240741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45678.65314814815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44879</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45723.48199074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44278.90318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44239</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44440.45909722222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44602.48578703704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44566.56325231482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44628</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44421</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44853.34524305556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44788.54672453704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44459.59157407407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>44473.48329861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44246.36898148148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>44557</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44284.59857638889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44608</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44258</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44831.67644675926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44879.67621527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44852.43765046296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44480.57546296297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44523</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>44840.60211805555</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44770</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44558.65778935186</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44425.43228009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44840.57934027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44515.3962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44729.60201388889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44753.47351851852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44600.34596064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44858</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44854.45015046297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44607.64086805555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44629</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44361</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44361</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44295</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44438</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44286.33185185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44434</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44239</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44496.57613425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44315</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44449.48881944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44456.48791666667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44363.42813657408</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44356.42612268519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>44436.45430555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44420.41239583334</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44257</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44473.48482638889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44473.57203703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44273</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44539</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44760.57719907408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44776.50158564815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44848.54179398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44469.94690972222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44776.49858796296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44440.46774305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44820</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44327</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44496.35853009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44446</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44557</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44278.37649305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44449</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44385</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44572.3869212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44341.51976851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44525</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44757.40743055556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44332.92143518518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44319</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44825</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44854.44881944444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44341</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44502.35916666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44606.39925925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>44616</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>44477.53445601852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>44559</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44706.6987962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44662.5583449074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44678.46045138889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44341.51594907408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44425.85980324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44929.63917824074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45597.62469907408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45386.46412037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45328.62417824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45618.38481481482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45723.38173611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45607.45059027777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>45357.36013888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>45166</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45567</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45567</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>45735.54914351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>45036</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>45728</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>45728</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>45684.38538194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>45684.39165509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>45198</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>45642</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45520</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>44869</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45394.65023148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44616.4834375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>45664.46695601852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>45358.39027777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45238.35519675926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45687.51572916667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45113.6524074074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45772.89429398148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45142.41402777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45306</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45093.51523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45019</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45712.50383101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45569.61069444445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45250.54054398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45714.56214120371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45315.616875</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45635.69366898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45769.45645833333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44943.65971064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45363</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45530.64133101852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44909</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>45267</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44936</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>45735.54525462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>45735.55263888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45483</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>45161.39702546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>45761.4737037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>45553.57829861111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45200.66553240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44851</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45328.80174768518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45328.80728009259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45308.49018518518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45335</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45512.60466435185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45187</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45734.605625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45674.5031712963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>45519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>45729.573125</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>45726.32118055555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44859.48170138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>45803.58403935185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44981</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>45208.606875</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45264.49295138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>45763.63662037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45853.83719907407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45800.27915509259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>45800.28173611111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>45439</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>45885.84417824074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45750</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44971.56957175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45804</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45583</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44678.49657407407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45887.55962962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45807.39603009259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45807.39693287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45887</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45888</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45180.8941087963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>45811.56231481482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45888</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45531</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45670.65815972222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45853.80958333334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45889.56239583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45785.48119212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>45608</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>45664.46590277777</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>45812.85927083333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45891.47547453704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45730.80828703703</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>45245.36645833333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45524.5453125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>45894.48487268519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>45894.50856481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>45572.54422453704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>45572.54723379629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>45896.44340277778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45664.56483796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45221.80592592592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44903.37894675926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>45567</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>45807.39909722222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45898.60689814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45649</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45194.62434027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>44846.47868055556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>45758.38741898148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>45819.49122685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>45900.51168981481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>45820</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>45446.5096412037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>45189.343125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>44956.4115625</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>45902.35972222222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>44602</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45203.71078703704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45758.38935185185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45632.45001157407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44642</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44642</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45637.5841087963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45905.46733796296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45825.51342592593</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45825.58298611111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45610.54395833334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45824.50715277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45827.56622685185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45827.6015625</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45827.49108796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44577.50803240741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45915.59814814815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45915.59641203703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>45915.59488425926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>45826.73297453704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>45915.3867824074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>45827</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45587.85671296297</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45587.87516203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45912.35192129629</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45826</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45912.52409722222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45915.39211805556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44566.53696759259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>45917.483125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>45167.53902777778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>45758.42807870371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>45917.63546296296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44727</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>45917.67140046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45069.45675925926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>45917.65636574074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45919.70690972222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45919.70596064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45590.45354166667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45919.48847222222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45371.57876157408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45831.53251157407</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45831.54814814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45923.64752314815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45923.64351851852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45923.66038194444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45832.84189814814</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45832.85254629629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45922.49980324074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45923.65631944445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45923.65457175926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45832.79658564815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45923.66246527778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45923.66396990741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45923.37681712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45833.61384259259</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45833.40255787037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45832.74289351852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45833.6091087963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45833.61652777778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45667.48127314815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45924.45631944444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45924.45824074074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45924.45907407408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45924.46025462963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45924.45655092593</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45924.4637037037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>45203.54998842593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>45805.38206018518</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44840</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45659.88552083333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45567</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45562.56664351852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>45930.56997685185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45217</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45328.82097222222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45933</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45245.84946759259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45324</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45936.7499537037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44722</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>45841.37010416666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>45841.37292824074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>45670.65989583333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>45936.4841087963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>45191.44642361111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45841.34400462963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>45264.6027662037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>45841.36141203704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45841.39032407408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>45841.39175925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45841.40001157407</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45841.40145833333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45841</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>45841.40612268518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45936</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>45936</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45091</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45841.3752662037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45841.38357638889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45841.39916666667</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44494.45533564815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45937.42376157407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45841</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45841.37609953704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45841.38165509259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45841.38238425926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45845.68017361111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45252.34416666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45938.62496527778</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>45678.57498842593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>45887.41344907408</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44722</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45887.40935185185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>45077</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>45575</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44984.81905092593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>45945.6556712963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44470.33744212963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45945.65668981482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45509.36181712963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45945.51461805555</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45586.46261574074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>45604.35873842592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>45946.55384259259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45175</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45851.40002314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45851.40489583334</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45566.58208333333</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>45853.84069444444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>45853.83872685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>45642.63851851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>45853.80796296296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>45748.46391203703</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44823</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>45208.61528935185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>45856.40608796296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>45856.40981481481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>45812.86350694444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45959</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45864.57112268519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>45868</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45868</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45868.45327546296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>45124</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>45790.38430555556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45802.92633101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>45957.55767361111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45873.4584837963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44473</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45684.38679398148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>45915.58923611111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>45873.3636574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44966</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>45875.716875</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>45873.48230324074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>45274</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45957.77112268518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45718.42078703704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45957.77280092592</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45959.57356481482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>45957.77527777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>45957.77659722222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>45915.59313657408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45229.31146990741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45876</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45604.63623842593</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45876.53638888889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45877.43789351852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45102.75549768518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44461.92769675926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45149</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45965.5946412037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45965.61563657408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45880</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>44931.6290625</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45965.62260416667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45965.63686342593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45965.59960648148</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>45965.6125</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45684.64578703704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>45044.34604166666</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>45966</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45239.45123842593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45713.62856481481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45713.63297453704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>45966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26261,7 +26261,7 @@
         <v>45320.63027777777</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>45967.35996527778</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45967.36096064815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45509.54403935185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45971.5106712963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45971.61238425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45971</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45971</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45261.48959490741</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45971.50793981482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45971</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45971.61780092592</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44249</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44993.46795138889</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45972.60884259259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>45972</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>45676.7283912037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45763.66113425926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45576.37633101852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45974.3296875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45975.28524305556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45975.53834490741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>44882</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45112.41413194445</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45667</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45713.62260416667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45978.48710648148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45105.33157407407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45105.33609953704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45978.48587962963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45604</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45043</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44270.51327546296</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45372</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45400.518125</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45981.48473379629</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45221</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45981.48684027778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45642.55597222222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44970.42385416666</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45272.7147337963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45985.47707175926</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45985.48043981481</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45692</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45369.36841435185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44998</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45986.73975694444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>44278</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45987.5032175926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45986.74592592593</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44320.4940625</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45987</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45987</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>44608</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45986.73809027778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45713.62721064815</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>46030.61541666667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>46031.38675925926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45989.57790509259</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45446.56206018518</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45357</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>45707.31686342593</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45707.32047453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>46031.40447916667</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>46030.58255787037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>44642</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45756.45248842592</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>46034.45233796296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>46034.48707175926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>46034.49576388889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>46034.50118055556</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45993.31182870371</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45993.31612268519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>46029.43209490741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45763.68064814815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45496.4336574074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>46037.34221064814</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45264</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44985</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>45021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45995.5971412037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>45705.65399305556</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31042,7 +31042,7 @@
         <v>45401</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>46030.63122685185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44557</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>45278</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44470</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45029.47266203703</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>44539</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>46038.4406712963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>46038.53915509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45160.4716087963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>46038.43708333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>45687.51660879629</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31731,7 +31731,7 @@
         <v>44928.46545138889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>45999.42320601852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45607.57563657407</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31902,7 +31902,7 @@
         <v>46038.54834490741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>46035.60658564815</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>46042.35212962963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>46042.35530092593</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>45608.42292824074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>45572.54373842593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45572.54646990741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45558</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>46042.35357638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>45622.57844907408</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>44970</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45200</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>46045.62228009259</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44686.45782407407</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>46045.62143518519</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>46003.54226851852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44942.3762037037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45414.55210648148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45664.46778935185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>46001.90171296296</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>46001.91138888889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>46001.91543981482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45274</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>46044.46630787037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>46001.89836805555</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>46045.59565972222</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45721.62189814815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>46045.61560185185</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>46007.50670138889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44797.4621412037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>45302</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45589.50008101852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>46006.51974537037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45701.66458333333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>46006.62721064815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>46006.65814814815</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>46007.50526620371</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>46049.57646990741</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45505</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34202,7 +34202,7 @@
         <v>45267.58851851852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>45204.35377314815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45264.59965277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34373,7 +34373,7 @@
         <v>45007.6435300926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>46050</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>46008.41601851852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>45154</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34601,7 +34601,7 @@
         <v>45443.33925925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45106.56295138889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>46055.38478009259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34772,7 +34772,7 @@
         <v>45302</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34829,7 +34829,7 @@
         <v>44652</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34886,7 +34886,7 @@
         <v>46010.51440972222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34943,7 +34943,7 @@
         <v>45072.47188657407</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>45271.75553240741</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45162.47753472222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45162.49752314815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45769.48971064815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45308</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45204.53039351852</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45475.84454861111</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45474.56277777778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>46057.70984953704</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>46057.71150462963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>44994.55994212963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45509.55278935185</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45509.41997685185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45722.31850694444</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45308.41804398148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45720.30297453704</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105.49190972222</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45105.49546296296</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45678.61195601852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45631.42819444444</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45012</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>45078</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45539.67039351852</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45357.36957175926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45701.97775462963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45649</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>45069.46366898148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>45763.41162037037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>44846</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>45517.62291666667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44235</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>45713.62402777778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44526</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>45705.65043981482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>45371.57340277778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45322</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>45238</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>45160.47324074074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>45219</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>45223</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45299</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>45224.29059027778</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45205</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44313</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>45567</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37615,7 +37615,7 @@
         <v>44501.34291666667</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>45114</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37729,7 +37729,7 @@
         <v>45674.39175925926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         <v>45674.41278935185</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37843,7 +37843,7 @@
         <v>45463.4815625</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
         <v>44278</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>45563.50743055555</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44587.44241898148</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>45243.43180555556</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>45243.44850694444</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45174</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44559.38648148148</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>45278</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>45091</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>45496.43035879629</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45200.66200231481</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>45223</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44820</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>45170</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>45684.38798611111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>45684.39041666667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>45258.65023148148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>45392.52753472222</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>45093.91306712963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45372.50608796296</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45645.55663194445</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45406.60965277778</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45275</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>45764.44802083333</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45664.5633912037</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>45596.56410879629</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>45194</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39469,7 +39469,7 @@
         <v>44729</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39526,7 +39526,7 @@
         <v>45575</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>44949.38756944444</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39640,7 +39640,7 @@
         <v>45270.27535879629</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39697,7 +39697,7 @@
         <v>44890</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         <v>45105.49415509259</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39811,7 +39811,7 @@
         <v>45674.55912037037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39868,7 +39868,7 @@
         <v>45009</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39925,7 +39925,7 @@
         <v>45688</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39982,7 +39982,7 @@
         <v>45554.5991087963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>45721.47923611111</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40096,7 +40096,7 @@
         <v>45188.56572916666</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40153,7 +40153,7 @@
         <v>45718.4666087963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>45547.28552083333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45245</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40324,7 +40324,7 @@
         <v>44949</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40381,7 +40381,7 @@
         <v>45243.44351851852</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40438,7 +40438,7 @@
         <v>45558.48805555556</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40495,7 +40495,7 @@
         <v>44553</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40552,7 +40552,7 @@
         <v>44553</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40609,7 +40609,7 @@
         <v>45701.55280092593</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40666,7 +40666,7 @@
         <v>45684.38881944444</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40723,7 +40723,7 @@
         <v>44957.30019675926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40780,7 +40780,7 @@
         <v>45393.4815625</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40837,7 +40837,7 @@
         <v>45713.62552083333</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40899,7 +40899,7 @@
         <v>45755.43791666667</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40956,7 +40956,7 @@
         <v>45173</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         <v>45343.28386574074</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41070,7 +41070,7 @@
         <v>45343.30072916667</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41127,7 +41127,7 @@
         <v>45188.38519675926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41184,7 +41184,7 @@
         <v>45167</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41241,7 +41241,7 @@
         <v>45566.61018518519</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41298,7 +41298,7 @@
         <v>44805.40015046296</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41355,7 +41355,7 @@
         <v>44698</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41412,7 +41412,7 @@
         <v>45755.42185185185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41469,7 +41469,7 @@
         <v>44936</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41526,7 +41526,7 @@
         <v>45044.55335648148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>45278</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>45607.43128472222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>45687.4334375</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>45279.3218287037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41811,7 +41811,7 @@
         <v>44699.66025462963</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41868,7 +41868,7 @@
         <v>45197</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41925,7 +41925,7 @@
         <v>45197.63068287037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41982,7 +41982,7 @@
         <v>45146</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42039,7 +42039,7 @@
         <v>45271</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>45328.8227662037</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>45265.51501157408</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44998</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44998</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>45036.34731481481</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         <v>45037.30505787037</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42443,7 +42443,7 @@
         <v>45176</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42505,7 +42505,7 @@
         <v>45777.66141203704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>45783.60868055555</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45589.92590277778</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>45468</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         <v>45785.44539351852</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>45785.4494675926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>45428.22497685185</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>45547.27622685185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>45786.47188657407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>45243.44006944444</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>45445</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>45775.50077546296</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>45790.58230324074</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43246,7 +43246,7 @@
         <v>45723.62244212963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43303,7 +43303,7 @@
         <v>45561.4999537037</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43360,7 +43360,7 @@
         <v>45642</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43417,7 +43417,7 @@
         <v>45792.95465277778</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43474,7 +43474,7 @@
         <v>45796.58666666667</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43531,7 +43531,7 @@
         <v>45797.39555555556</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43588,7 +43588,7 @@
         <v>45796.81549768519</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -575,7 +575,7 @@
         <v>44420.41430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45327.48333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44546</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45756.45313657408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45772.89230324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45766.47494212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44979</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45841.38553240741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45915.58710648148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45678.65314814815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44879</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45723.48199074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44278.90318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44440.45909722222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44566.56325231482</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44602.48578703704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44421</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44628</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44853.34524305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44788.54672453704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44459.59157407407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44473.48329861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>44557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44284.59857638889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44608</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44831.67644675926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44879.67621527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44852.43765046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44480.57546296297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44840.60211805555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44558.65778935186</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44425.43228009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44840.57934027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44515.3962962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44729.60201388889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44753.47351851852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44600.34596064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44858</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44854.45015046297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44365</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44607.64086805555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>44629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44361</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44361</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44361</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44295</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44286.33185185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44434</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44496.57613425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44449.48881944444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44456.48791666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44363.42813657408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44356.42612268519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44436.45430555556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44420.41239583334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>44257</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44473.48482638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44473.57203703704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44273</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44760.57719907408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44776.50158564815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44848.54179398148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44469.94690972222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44776.49858796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44440.46774305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44820</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44327</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44496.35853009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44278.37649305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44449</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44341.51976851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44572.3869212963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44385</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44525</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44757.40743055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44332.92143518518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44319</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44825</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44854.44881944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44502.35916666667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44606.39925925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44477.53445601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44559</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44706.6987962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44662.5583449074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44678.46045138889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44341.51594907408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44425.85980324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44648</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44552</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45328.62417824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45386.46412037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45723.38173611111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45618.38481481482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45166</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45607.45059027777</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45036</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>45567</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45567</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44929.63917824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45684.38538194444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>45684.39165509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45357.36013888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>45735.54914351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>45597.62469907408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45728</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>45728</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>45642</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>45198</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45520</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44616.4834375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>45664.46695601852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44869</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45358.39027777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45394.65023148148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45238.35519675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45113.6524074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45772.89429398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45142.41402777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45687.51572916667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44595</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45306</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45019</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45093.51523148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45712.50383101852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45250.54054398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45315.616875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45569.61069444445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45635.69366898148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45769.45645833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44943.65971064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45267</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45363</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45558</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45558</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>45530.64133101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44909</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>45735.54525462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45735.55263888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>45761.4737037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>45483</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44851</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>45161.39702546296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>45328.80174768518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45328.80728009259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>45209</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45553.57829861111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>45200.66553240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45335</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45187</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45308.49018518518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44859.48170138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44981</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45208.606875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45264.49295138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44971.56957175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44678.49657407407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45714.56214120371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45531</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45664.46590277777</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45730.80828703703</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>45245.36645833333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>45512.60466435185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>45524.5453125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>45649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45572.54422453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45572.54723379629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45763.63662037037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45853.83719907407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45664.56483796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>45819.49122685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45221.80592592592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45885.84417824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44903.37894675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45567</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45583</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45820</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44846.47868055556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45887.55962962963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45825.51342592593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45446.5096412037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45887</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45888</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45888</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45825.58298611111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45189.343125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45853.80958333334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45824.50715277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45889.56239583333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44956.4115625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45785.48119212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45827.56622685185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45827.6015625</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44602</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45203.71078703704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45827.49108796296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45758.38935185185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45632.45001157407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44642</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44642</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45637.5841087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45826.73297453704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45827</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45891.47547453704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45826</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45894.48487268519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45894.50856481482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45610.54395833334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45896.44340277778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45831.53251157407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45831.54814814815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45832.84189814814</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45832.85254629629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44577.50803240741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45832.79658564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45833.61384259259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45833.40255787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45832.74289351852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45587.85671296297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45587.87516203704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45833.6091087963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45833.61652777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45807.39909722222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45898.60689814815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45194.62434027778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45805.38206018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44566.53696759259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45167.53902777778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45758.42807870371</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45659.88552083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44727</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45758.38741898148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45069.45675925926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45900.51168981481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45590.45354166667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45902.35972222222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45371.57876157408</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45905.46733796296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45841.37010416666</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45841.37292824074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45841.34400462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45841.36141203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45841.39032407408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45841.39175925926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45841.40001157407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45841.40145833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45841</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45841.40612268518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45841.3752662037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45841.38357638889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45667.48127314815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45841.39916666667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45841</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>45841.37609953704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>45841.38165509259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45841.38238425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45845.68017361111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>45203.54998842593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45915.59814814815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45915.59641203703</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45915.59488425926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45915.3867824074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45912.35192129629</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45912.52409722222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45567</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45915.39211805556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45586.46261574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>45604.35873842592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>45917.483125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45562.56664351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45917.63546296296</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45917.67140046296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45217</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45917.65636574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45851.40002314815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45851.40489583334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45328.82097222222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45919.70690972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45919.70596064815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45919.48847222222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45853.84069444444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45853.83872685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45853.80796296296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45748.46391203703</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45856.40608796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45856.40981481481</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>45245.84946759259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44377</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45324</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45923.64752314815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44722</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>45923.64351851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>45923.66038194444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>45812.86350694444</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45922.49980324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45923.65631944445</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45670.65989583333</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45923.65457175926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45191.44642361111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45923.66246527778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45923.66396990741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45923.37681712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45264.6027662037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45091</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>45864.57112268519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45924.45631944444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44494.45533564815</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>45924.45824074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45924.45907407408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>45924.46025462963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45924.45655092593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45924.4637037037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45868</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>45868</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45868.45327546296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44853</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44853</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45252.34416666667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45678.57498842593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45790.38430555556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44722</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45802.92633101852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45873.4584837963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45930.56997685185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45873.3636574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>45875.716875</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>45873.48230324074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>45575</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44984.81905092593</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44470.33744212963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45509.36181712963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45933</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45876</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45876.53638888889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45877.43789351852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45936.7499537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45880</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45936.4841087963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45566.58208333333</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45642.63851851852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44823</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45208.61528935185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45936</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45936</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45937.42376157407</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45676.7283912037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45763.66113425926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45938.62496527778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45887.41344907408</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45576.37633101852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>45887.40935185185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45124</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45945.6556712963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>45945.65668981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44473</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>45684.38679398148</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>45945.51461805555</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44966</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>45274</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45946.55384259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>45718.42078703704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>45229.31146990741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45604.63623842593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>45102.75549768518</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44461.92769675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>45149</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45959</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44931.6290625</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45684.64578703704</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>45044.34604166666</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45239.45123842593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>45713.62856481481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>45713.63297453704</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>45320.63027777777</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>45509.54403935185</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>45957.55767361111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>45261.48959490741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45915.58923611111</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>45957.77112268518</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44249</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>45957.77280092592</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45959.57356481482</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44993.46795138889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45957.77527777778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45957.77659722222</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45915.59313657408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45112.41413194445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45965.5946412037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45965.61563657408</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45965.62260416667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45965.63686342593</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45965.59960648148</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45713.62260416667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>45965.6125</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>45105.33157407407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>45105.33609953704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>45604</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>45966</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>45043</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44270.51327546296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>45372</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45966</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45400.518125</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>45221</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>45967.35996527778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>45967.36096064815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>45971.5106712963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>45971.61238425926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>45642.55597222222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>45971</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>45971</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44970.42385416666</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45272.7147337963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45971.50793981482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45971</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>45971.61780092592</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         <v>45972.60884259259</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>45972</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>45369.36841435185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44998</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>44278</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>45974.3296875</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44320.4940625</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45975.28524305556</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45975.53834490741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>45978.48710648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         <v>45713.62721064815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>45978.48587962963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>45981.48473379629</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>45981.48684027778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45446.56206018518</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45357</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28011,7 +28011,7 @@
         <v>45707.31686342593</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45707.32047453704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         <v>44642</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28182,7 +28182,7 @@
         <v>45756.45248842592</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>45985.47707175926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>45985.48043981481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>45986.73975694444</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45987.5032175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45986.74592592593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45987</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45987</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45986.73809027778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45763.68064814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45496.4336574074</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45989.57790509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45264</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>46034.45233796296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>46034.48707175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44985</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45021</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45705.65399305556</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45401</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>46034.49576388889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44557</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>46034.50118055556</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45993.31182870371</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45993.31612268519</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>45278</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>44470</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45029.47266203703</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>44539</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>46037.34221064814</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45160.4716087963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45995.5971412037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29959,7 +29959,7 @@
         <v>45687.51660879629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>44928.46545138889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30073,7 +30073,7 @@
         <v>45607.57563657407</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30130,7 +30130,7 @@
         <v>46038.4406712963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         <v>46038.53915509259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>46038.43708333333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30301,7 +30301,7 @@
         <v>45608.42292824074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         <v>45999.42320601852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>46038.54834490741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30472,7 +30472,7 @@
         <v>46035.60658564815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>45572.54373842593</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>45572.54646990741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>45558</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>45622.57844907408</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44970</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>45200</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>46042.35212962963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>46042.35530092593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45106</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>44686.45782407407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>44942.3762037037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>45414.55210648148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45664.46778935185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>46042.35357638889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45274</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>46045.62228009259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45721.62189814815</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>46045.62143518519</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>46003.54226851852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>44797.4621412037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45302</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>46001.90171296296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>46001.91138888889</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>46001.91543981482</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45589.50008101852</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>46044.46630787037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45701.66458333333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>46001.89836805555</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>46045.59565972222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>46045.61560185185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>46007.50670138889</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45505</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>46006.51974537037</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45267.58851851852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>46006.62721064815</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>46006.65814814815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>46007.50526620371</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45204.35377314815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45264.59965277778</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45007.6435300926</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45154</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>46049.57646990741</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45443.33925925926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45106.56295138889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45302</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>46008.41601851852</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44652</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45072.47188657407</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45271.75553240741</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33352,7 +33352,7 @@
         <v>45162.47753472222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33409,7 +33409,7 @@
         <v>45162.49752314815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>46055.38478009259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>46010.51440972222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45769.48971064815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45204.53039351852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45475.84454861111</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>45474.56277777778</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>44994.55994212963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>45308</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>46057.70984953704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33979,7 +33979,7 @@
         <v>46057.71150462963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>45509.55278935185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45509.41997685185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34150,7 +34150,7 @@
         <v>45722.31850694444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45308.41804398148</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>46062.64864583333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34321,7 +34321,7 @@
         <v>45720.30297453704</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34378,7 +34378,7 @@
         <v>45105.49190972222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         <v>45105.49546296296</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34492,7 +34492,7 @@
         <v>45678.61195601852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34549,7 +34549,7 @@
         <v>45631.42819444444</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34606,7 +34606,7 @@
         <v>45012</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34663,7 +34663,7 @@
         <v>46062.65008101852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>46050</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>46064.39121527778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>45734</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>45539.67039351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>46064.50408564815</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>45357.36957175926</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35119,7 +35119,7 @@
         <v>45701.97775462963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         <v>45649</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45069.46366898148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>46068.6425</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45763.41162037037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>44846</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45517.62291666667</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>46066.31643518519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45713.62402777778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>44526</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>45705.65043981482</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>45371.57340277778</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>46066.57447916667</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>46068.63875</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>45322</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>46029.43209490741</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>45238</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>45160.47324074074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>45219</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>45223</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45299</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45224.29059027778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45205</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44313</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45567</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>46031.40447916667</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>46030.58255787037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>46030.61541666667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>46073.59069444444</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>46073.52276620371</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>46031.38675925926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>46030.63122685185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>46073.51833333333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>46073.52184027778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37122,7 +37122,7 @@
         <v>46073.53856481481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
         <v>44501.34291666667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>46073.591875</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>46073.52071759259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>45114</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>45674.39175925926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>45674.41278935185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45463.4815625</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44278</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37645,7 +37645,7 @@
         <v>45563.50743055555</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44587.44241898148</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37759,7 +37759,7 @@
         <v>45243.43180555556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45243.44850694444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>45174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44559.38648148148</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45278</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45091</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>45496.43035879629</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>45200.66200231481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38230,7 +38230,7 @@
         <v>45223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>44820</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         <v>45170</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>45684.38798611111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>45684.39041666667</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>45258.65023148148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38577,7 +38577,7 @@
         <v>45392.52753472222</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38634,7 +38634,7 @@
         <v>45093.91306712963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>45372.50608796296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>45645.55663194445</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>45406.60965277778</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>45275</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>45764.44802083333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>45664.5633912037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>45596.56410879629</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>45194</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39157,7 +39157,7 @@
         <v>44729</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39214,7 +39214,7 @@
         <v>45575</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44949.38756944444</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>45270.27535879629</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44890</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>45105.49415509259</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>45674.55912037037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>45009</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>45688</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>45554.5991087963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>45721.47923611111</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>45188.56572916666</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>45718.4666087963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>45547.28552083333</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>45245</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>45243.44351851852</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>45558.48805555556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44553</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44553</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>45701.55280092593</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>45684.38881944444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44957.30019675926</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>45393.4815625</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45713.62552083333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45755.43791666667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45173</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>45343.28386574074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>45343.30072916667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45188.38519675926</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45167</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>45566.61018518519</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44805.40015046296</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44698</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45755.42185185185</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>44936</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41214,7 +41214,7 @@
         <v>45044.55335648148</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41271,7 +41271,7 @@
         <v>45278</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45607.43128472222</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41385,7 +41385,7 @@
         <v>45687.4334375</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>45279.3218287037</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>44699.66025462963</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45197</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45197.63068287037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45146</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45271</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
         <v>45328.8227662037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41846,7 +41846,7 @@
         <v>45265.51501157408</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41903,7 +41903,7 @@
         <v>44998</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41960,7 +41960,7 @@
         <v>44998</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42017,7 +42017,7 @@
         <v>45036.34731481481</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45037.30505787037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45176</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45777.66141203704</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42250,7 +42250,7 @@
         <v>45783.60868055555</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42307,7 +42307,7 @@
         <v>45589.92590277778</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42364,7 +42364,7 @@
         <v>45468</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42421,7 +42421,7 @@
         <v>45785.44539351852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45785.4494675926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45428.22497685185</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42592,7 +42592,7 @@
         <v>45547.27622685185</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42649,7 +42649,7 @@
         <v>45786.47188657407</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         <v>45243.44006944444</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42763,7 +42763,7 @@
         <v>45445</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42820,7 +42820,7 @@
         <v>45775.50077546296</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>45790.58230324074</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42934,7 +42934,7 @@
         <v>45723.62244212963</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42991,7 +42991,7 @@
         <v>45561.4999537037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43048,7 +43048,7 @@
         <v>45642</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>45792.95465277778</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43162,7 +43162,7 @@
         <v>45796.58666666667</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         <v>45797.39555555556</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>45796.81549768519</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43333,7 +43333,7 @@
         <v>45674.5031712963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>45729.573125</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43447,7 +43447,7 @@
         <v>45726.32118055555</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43504,7 +43504,7 @@
         <v>45803.58403935185</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43561,7 +43561,7 @@
         <v>45800.27915509259</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43618,7 +43618,7 @@
         <v>45800.28173611111</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>45439</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43732,7 +43732,7 @@
         <v>45750</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>45804</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43846,7 +43846,7 @@
         <v>45807.39603009259</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45807.39693287037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45180.8941087963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>45811.56231481482</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45670.65815972222</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44131,7 +44131,7 @@
         <v>45608</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44188,7 +44188,7 @@
         <v>45812.85927083333</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -575,7 +575,7 @@
         <v>44420.41430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45327.48333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44546</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45756.45313657408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45772.89230324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45766.47494212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44979</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45841.38553240741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45915.58710648148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45678.65314814815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44879</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45723.48199074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44278.90318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44440.45909722222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44566.56325231482</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44602.48578703704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44421</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44628</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44853.34524305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44788.54672453704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44459.59157407407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44473.48329861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>44557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44284.59857638889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44608</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44831.67644675926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44879.67621527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44852.43765046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44480.57546296297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44840.60211805555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44558.65778935186</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44425.43228009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44840.57934027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44515.3962962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44729.60201388889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44753.47351851852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44600.34596064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44858</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44854.45015046297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44365</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44607.64086805555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>44629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44361</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44361</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44361</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44295</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44286.33185185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44434</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44496.57613425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44449.48881944444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44456.48791666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44363.42813657408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44356.42612268519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44436.45430555556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44420.41239583334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>44257</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44473.48482638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44473.57203703704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44273</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44760.57719907408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44776.50158564815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44848.54179398148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44469.94690972222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44776.49858796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44440.46774305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44820</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44327</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44496.35853009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44278.37649305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44449</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44341.51976851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44572.3869212963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44385</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44525</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44757.40743055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44332.92143518518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44319</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44825</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44854.44881944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44502.35916666667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44606.39925925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44477.53445601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44559</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44706.6987962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44662.5583449074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44678.46045138889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44341.51594907408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44425.85980324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44648</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44727</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44552</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45328.62417824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45386.46412037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45723.38173611111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45618.38481481482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45166</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45607.45059027777</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45036</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>45567</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45567</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44929.63917824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45684.38538194444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>45684.39165509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45357.36013888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>45735.54914351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>45597.62469907408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45728</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>45728</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>45642</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>45198</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45520</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44616.4834375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>45664.46695601852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44869</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45358.39027777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45394.65023148148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45238.35519675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45113.6524074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45772.89429398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45142.41402777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45687.51572916667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44595</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45306</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45019</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45093.51523148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45712.50383101852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45250.54054398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45315.616875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45569.61069444445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45635.69366898148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45769.45645833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44943.65971064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45267</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45363</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45558</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45558</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>45530.64133101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44909</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>45735.54525462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45735.55263888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>45761.4737037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>45483</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44851</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>45161.39702546296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>45328.80174768518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45328.80728009259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>45209</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45553.57829861111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>45200.66553240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45335</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45187</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45308.49018518518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44859.48170138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44981</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45208.606875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45264.49295138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44971.56957175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44678.49657407407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45714.56214120371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45531</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45664.46590277777</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45730.80828703703</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>45245.36645833333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>45512.60466435185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>45524.5453125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>45649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45572.54422453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45572.54723379629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45763.63662037037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45853.83719907407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45664.56483796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>45819.49122685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45221.80592592592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45885.84417824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44903.37894675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45567</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45583</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45820</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44846.47868055556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45887.55962962963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45825.51342592593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45446.5096412037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45887</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45888</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45888</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45825.58298611111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45189.343125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45853.80958333334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45824.50715277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45889.56239583333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44956.4115625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45785.48119212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45827.56622685185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45827.6015625</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44602</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45203.71078703704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45827.49108796296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45758.38935185185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45632.45001157407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44642</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44642</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45637.5841087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45826.73297453704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45827</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45891.47547453704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45826</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45894.48487268519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45894.50856481482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45610.54395833334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45896.44340277778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45831.53251157407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45831.54814814815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45832.84189814814</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45832.85254629629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44577.50803240741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45832.79658564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45833.61384259259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45833.40255787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45832.74289351852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45587.85671296297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45587.87516203704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45833.6091087963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45833.61652777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45807.39909722222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45898.60689814815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45194.62434027778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45805.38206018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44566.53696759259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45167.53902777778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45758.42807870371</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45659.88552083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44727</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45758.38741898148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45069.45675925926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45900.51168981481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45590.45354166667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45902.35972222222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45371.57876157408</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45905.46733796296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45841.37010416666</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45841.37292824074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45841.34400462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45841.36141203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45841.39032407408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45841.39175925926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45841.40001157407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45841.40145833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45841</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45841.40612268518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45841.3752662037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45841.38357638889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45667.48127314815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45841.39916666667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45841</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>45841.37609953704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>45841.38165509259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45841.38238425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45845.68017361111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>45203.54998842593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45915.59814814815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45915.59641203703</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45915.59488425926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45915.3867824074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45912.35192129629</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45912.52409722222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45567</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45915.39211805556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45586.46261574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>45604.35873842592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>45917.483125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45562.56664351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45917.63546296296</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45917.67140046296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45217</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45917.65636574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45851.40002314815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45851.40489583334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45328.82097222222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45919.70690972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45919.70596064815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45919.48847222222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45853.84069444444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45853.83872685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45853.80796296296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45748.46391203703</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45856.40608796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45856.40981481481</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>45245.84946759259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44377</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45324</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45923.64752314815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44722</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>45923.64351851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>45923.66038194444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>45812.86350694444</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45922.49980324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45923.65631944445</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45670.65989583333</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45923.65457175926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45191.44642361111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45923.66246527778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45923.66396990741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45923.37681712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45264.6027662037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45091</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>45864.57112268519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45924.45631944444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44494.45533564815</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>45924.45824074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45924.45907407408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>45924.46025462963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45924.45655092593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45924.4637037037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45868</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>45868</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45868.45327546296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44853</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44853</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45252.34416666667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45678.57498842593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45790.38430555556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44722</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45802.92633101852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45873.4584837963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45930.56997685185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45873.3636574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>45875.716875</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>45873.48230324074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>45575</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44984.81905092593</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44470.33744212963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45509.36181712963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45933</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45876</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45876.53638888889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45877.43789351852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45936.7499537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45880</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45936.4841087963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45566.58208333333</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45642.63851851852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44823</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45208.61528935185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45936</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45936</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45937.42376157407</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45676.7283912037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45763.66113425926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45938.62496527778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45887.41344907408</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45576.37633101852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>45887.40935185185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45124</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45945.6556712963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>45945.65668981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44473</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>45684.38679398148</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>45945.51461805555</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44966</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>45274</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45946.55384259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>45718.42078703704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>45229.31146990741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45604.63623842593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>45102.75549768518</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44461.92769675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>45149</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45959</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44931.6290625</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45684.64578703704</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>45044.34604166666</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45239.45123842593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>45713.62856481481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>45713.63297453704</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>45320.63027777777</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>45509.54403935185</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>45957.55767361111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>45261.48959490741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45915.58923611111</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>45957.77112268518</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44249</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>45957.77280092592</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45959.57356481482</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44993.46795138889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45957.77527777778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45957.77659722222</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45915.59313657408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45112.41413194445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45965.5946412037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45965.61563657408</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45965.62260416667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45965.63686342593</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45965.59960648148</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45713.62260416667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>45965.6125</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>45105.33157407407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>45105.33609953704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>45604</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>45966</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>45043</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44270.51327546296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>45372</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45966</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45400.518125</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>45221</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>45967.35996527778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>45967.36096064815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>45971.5106712963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>45971.61238425926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>45642.55597222222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>45971</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>45971</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44970.42385416666</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45272.7147337963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45971.50793981482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45971</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>45971.61780092592</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         <v>45972.60884259259</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>45972</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>45369.36841435185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44998</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>44278</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>45974.3296875</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44320.4940625</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45975.28524305556</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45975.53834490741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>45978.48710648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         <v>45713.62721064815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>45978.48587962963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>45981.48473379629</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>45981.48684027778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45446.56206018518</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45357</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28011,7 +28011,7 @@
         <v>45707.31686342593</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45707.32047453704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         <v>44642</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28182,7 +28182,7 @@
         <v>45756.45248842592</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>45985.47707175926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>45985.48043981481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>45986.73975694444</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45987.5032175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45986.74592592593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45987</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45987</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45986.73809027778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45763.68064814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45496.4336574074</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45989.57790509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45264</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>46034.45233796296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>46034.48707175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44985</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45021</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45705.65399305556</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45401</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>46034.49576388889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44557</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>46034.50118055556</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45993.31182870371</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45993.31612268519</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>45278</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>44470</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45029.47266203703</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>44539</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>46037.34221064814</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45160.4716087963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45995.5971412037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29959,7 +29959,7 @@
         <v>45687.51660879629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>44928.46545138889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30073,7 +30073,7 @@
         <v>45607.57563657407</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30130,7 +30130,7 @@
         <v>46038.4406712963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         <v>46038.53915509259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>46038.43708333333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30301,7 +30301,7 @@
         <v>45608.42292824074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         <v>45999.42320601852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>46038.54834490741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30472,7 +30472,7 @@
         <v>46035.60658564815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>45572.54373842593</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>45572.54646990741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>45558</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>45622.57844907408</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44970</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>45200</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>46042.35212962963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>46042.35530092593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45106</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>44686.45782407407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>44942.3762037037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>45414.55210648148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45664.46778935185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>46042.35357638889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45274</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>46045.62228009259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45721.62189814815</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>46045.62143518519</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>46003.54226851852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>44797.4621412037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45302</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>46001.90171296296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>46001.91138888889</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>46001.91543981482</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45589.50008101852</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>46044.46630787037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45701.66458333333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>46001.89836805555</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>46045.59565972222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>46045.61560185185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>46007.50670138889</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45505</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>46006.51974537037</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45267.58851851852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>46006.62721064815</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>46006.65814814815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>46007.50526620371</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45204.35377314815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45264.59965277778</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45007.6435300926</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45154</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>46049.57646990741</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45443.33925925926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45106.56295138889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45302</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>46008.41601851852</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44652</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45072.47188657407</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45271.75553240741</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33352,7 +33352,7 @@
         <v>45162.47753472222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33409,7 +33409,7 @@
         <v>45162.49752314815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>46055.38478009259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>46010.51440972222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45769.48971064815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45204.53039351852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45475.84454861111</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>45474.56277777778</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>44994.55994212963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>45308</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>46057.70984953704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33979,7 +33979,7 @@
         <v>46057.71150462963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>45509.55278935185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45509.41997685185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34150,7 +34150,7 @@
         <v>45722.31850694444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45308.41804398148</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>46062.64864583333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34321,7 +34321,7 @@
         <v>45720.30297453704</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34378,7 +34378,7 @@
         <v>45105.49190972222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         <v>45105.49546296296</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34492,7 +34492,7 @@
         <v>45678.61195601852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34549,7 +34549,7 @@
         <v>45631.42819444444</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34606,7 +34606,7 @@
         <v>45012</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34663,7 +34663,7 @@
         <v>46062.65008101852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>46050</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>46064.39121527778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>45734</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>45539.67039351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>46064.50408564815</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>45357.36957175926</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35119,7 +35119,7 @@
         <v>45701.97775462963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         <v>45649</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45069.46366898148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>46068.6425</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45763.41162037037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>44846</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45517.62291666667</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>46066.31643518519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45713.62402777778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>44526</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>45705.65043981482</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>45371.57340277778</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>46066.57447916667</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>46068.63875</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>45322</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>46029.43209490741</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>45238</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>45160.47324074074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>45219</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>45223</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45299</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45224.29059027778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45205</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44313</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45567</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>46031.40447916667</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>46030.58255787037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>46030.61541666667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>46073.59069444444</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>46073.52276620371</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>46031.38675925926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>46030.63122685185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>46073.51833333333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>46073.52184027778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37122,7 +37122,7 @@
         <v>46073.53856481481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
         <v>44501.34291666667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>46073.591875</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>46073.52071759259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>45114</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>45674.39175925926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>45674.41278935185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45463.4815625</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44278</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37645,7 +37645,7 @@
         <v>45563.50743055555</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
         <v>44587.44241898148</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37759,7 +37759,7 @@
         <v>45243.43180555556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45243.44850694444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>45174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44559.38648148148</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45278</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45091</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>45496.43035879629</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>45200.66200231481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38230,7 +38230,7 @@
         <v>45223</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>44820</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         <v>45170</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>45684.38798611111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>45684.39041666667</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>45258.65023148148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38577,7 +38577,7 @@
         <v>45392.52753472222</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38634,7 +38634,7 @@
         <v>45093.91306712963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>45372.50608796296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>45645.55663194445</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>45406.60965277778</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>45275</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>45764.44802083333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>45664.5633912037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>45596.56410879629</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>45194</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39157,7 +39157,7 @@
         <v>44729</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39214,7 +39214,7 @@
         <v>45575</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44949.38756944444</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>45270.27535879629</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44890</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>45105.49415509259</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>45674.55912037037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>45009</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>45688</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>45554.5991087963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>45721.47923611111</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>45188.56572916666</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>45718.4666087963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>45547.28552083333</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>45245</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>45243.44351851852</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>45558.48805555556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44553</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44553</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>45701.55280092593</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>45684.38881944444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44957.30019675926</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>45393.4815625</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45713.62552083333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45755.43791666667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45173</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>45343.28386574074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>45343.30072916667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45188.38519675926</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45167</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>45566.61018518519</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44805.40015046296</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44698</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45755.42185185185</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>44936</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41214,7 +41214,7 @@
         <v>45044.55335648148</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41271,7 +41271,7 @@
         <v>45278</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45607.43128472222</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41385,7 +41385,7 @@
         <v>45687.4334375</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>45279.3218287037</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>44699.66025462963</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45197</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45197.63068287037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45146</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45271</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
         <v>45328.8227662037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41846,7 +41846,7 @@
         <v>45265.51501157408</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41903,7 +41903,7 @@
         <v>44998</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41960,7 +41960,7 @@
         <v>44998</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42017,7 +42017,7 @@
         <v>45036.34731481481</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45037.30505787037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45176</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45777.66141203704</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42250,7 +42250,7 @@
         <v>45783.60868055555</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42307,7 +42307,7 @@
         <v>45589.92590277778</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42364,7 +42364,7 @@
         <v>45468</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42421,7 +42421,7 @@
         <v>45785.44539351852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45785.4494675926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45428.22497685185</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42592,7 +42592,7 @@
         <v>45547.27622685185</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42649,7 +42649,7 @@
         <v>45786.47188657407</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         <v>45243.44006944444</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42763,7 +42763,7 @@
         <v>45445</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42820,7 +42820,7 @@
         <v>45775.50077546296</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>45790.58230324074</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42934,7 +42934,7 @@
         <v>45723.62244212963</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42991,7 +42991,7 @@
         <v>45561.4999537037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43048,7 +43048,7 @@
         <v>45642</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>45792.95465277778</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43162,7 +43162,7 @@
         <v>45796.58666666667</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         <v>45797.39555555556</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>45796.81549768519</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43333,7 +43333,7 @@
         <v>45674.5031712963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>45729.573125</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43447,7 +43447,7 @@
         <v>45726.32118055555</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43504,7 +43504,7 @@
         <v>45803.58403935185</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43561,7 +43561,7 @@
         <v>45800.27915509259</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43618,7 +43618,7 @@
         <v>45800.28173611111</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>45439</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43732,7 +43732,7 @@
         <v>45750</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>45804</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43846,7 +43846,7 @@
         <v>45807.39603009259</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45807.39693287037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45180.8941087963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>45811.56231481482</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45670.65815972222</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44131,7 +44131,7 @@
         <v>45608</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44188,7 +44188,7 @@
         <v>45812.85927083333</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -575,7 +575,7 @@
         <v>44420.41430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45327.48333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>45483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44546</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45678.65314814815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44508</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44879</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45772.89230324074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45841.38553240741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45915.58710648148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45756.45313657408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44979</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45723.48199074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45223</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45766.47494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44278.90318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44440.45909722222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44602.48578703704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44628</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44853.34524305556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44788.54672453704</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44468</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44566.56325231482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44459.59157407407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44473.48329861111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44421</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>44557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44284.59857638889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44608</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44831.67644675926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44879.67621527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44852.43765046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44480.57546296297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44840.60211805555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44558.65778935186</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44425.43228009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44840.57934027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44515.3962962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44729.60201388889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44753.47351851852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44600.34596064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44858</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44854.45015046297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44365</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44607.64086805555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>44629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44361</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44361</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44361</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44295</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44286.33185185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44434</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44496.57613425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44449.48881944444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44456.48791666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44363.42813657408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44356.42612268519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44436.45430555556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44420.41239583334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>44257</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44473.48482638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44473.57203703704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44273</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44760.57719907408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44776.50158564815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44848.54179398148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44469.94690972222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44440.46774305555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44776.49858796296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44820</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44327</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44496.35853009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44278.37649305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>44449</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44341.51976851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44572.3869212963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44385</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44525</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44757.40743055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44332.92143518518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44319</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44825</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44854.44881944444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44502.35916666667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44606.39925925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44559</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44477.53445601852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44706.6987962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44662.5583449074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44678.46045138889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44341.51594907408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44425.85980324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44648</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>45712.50383101852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>45267</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44823</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45221.80592592592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45324</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45713.62552083333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>45567</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>45091</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>45401</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45406.60965277778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>45343.28386574074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45343.30072916667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45705.65043981482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>45205</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>45037.30505787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45363</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>45763.68064814815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>45302</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44853</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45243.43180555556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44853</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>45558.48805555556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>45756.45248842592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45393.4815625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45315.616875</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45243.44850694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>45446.56206018518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44539</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44494.45533564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44949</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44957.30019675926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45271.75553240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44966</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45170</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44602</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45520</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44981</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44470.33744212963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45530.64133101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45604</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45475.84454861111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44984.81905092593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45531</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45569.61069444445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45562.56664351852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45069.46366898148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>45091</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>45664.56483796296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>45803.58403935185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>45113.6524074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45357</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45670.65989583333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45203.54998842593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44557</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44949.38756944444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44943.65971064815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>45888</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>45558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>45888</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45785.48119212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45807.39603009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45763.63662037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45887.55962962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45524.5453125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45763.66113425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45807.39693287037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44998</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44998</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45853.80958333334</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45853.83719907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>45180.8941087963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>45576.37633101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>45887</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>45670.65815972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44587.44241898148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>45885.84417824074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>45811.56231481482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44595</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>45512.60466435185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45676.7283912037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45007.6435300926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>45583</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45217</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45572.54422453704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44890</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45567</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45812.85927083333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45261.48959490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45889.56239583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45197.63068287037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45567</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45558</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45819.49122685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45496.43035879629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45820</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45891.47547453704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45558</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45894.48487268519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45894.50856481482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45572.54723379629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45824.50715277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45826</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45896.44340277778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45825.51342592593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45825.58298611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45826.73297453704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45898.60689814815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45587.85671296297</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45587.87516203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45827</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45827.56622685185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45900.51168981481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45902.35972222222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45827.6015625</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45758.38741898148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45827.49108796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45831.54814814815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45831.53251157407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45807.39909722222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44470</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>45142.41402777778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>45194.62434027778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45832.74289351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44956.4115625</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44994.55994212963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45833.61384259259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>45833.40255787037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45659.88552083333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45805.38206018518</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45832.84189814814</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>45832.85254629629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44445</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>45833.6091087963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45832.79658564815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>45833.61652777778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>45772.89429398148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>45093.91306712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>45905.46733796296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>45270.27535879629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>45575</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>45841.3752662037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>45841</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45841.37609953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>45841.38165509259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45841.38238425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45841.34400462963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45841.39916666667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>44931.6290625</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45841.36141203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45841.39032407408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45841.38357638889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45841.39175925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>45841.37010416666</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>45841.37292824074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>45841.40001157407</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>45841.40145833333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45841</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45841.40612268518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45912.35192129629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45845.68017361111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44929.63917824074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44942.3762037037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44526</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45044.34604166666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44722</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45637.5841087963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45012</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45586.46261574074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45912.52409722222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>45604.35873842592</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45915.59488425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45915.59641203703</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45414.55210648148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45851.40489583334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45851.40002314815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>45853.84069444444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45674.41278935185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45853.83872685185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45853.80796296296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45915.59814814815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45915.3867824074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45748.46391203703</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45856.40608796296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45856.40981481481</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45915.39211805556</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44377</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45812.86350694444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45701.66458333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45917.483125</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45917.67140046296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>45917.65636574074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>45864.57112268519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>45917.63546296296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45674.55912037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45868</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45868</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>45919.70596064815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45919.70690972222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45919.48847222222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45922.49980324074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45923.64351851852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45924.45655092593</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45923.66246527778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45923.66396990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45923.66038194444</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45924.45907407408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45924.46025462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45924.4637037037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45924.45824074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45924.45631944444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45923.65457175926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45923.64752314815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45923.65631944445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45923.37681712963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45868.45327546296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45802.92633101852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45930.56997685185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45649</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>45664.5633912037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>45189.343125</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45873.4584837963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>45873.48230324074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>45873.3636574074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>45790.38430555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44722</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>45876.53638888889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>45875.716875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>45876</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45219</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>45161.39702546296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44320.4940625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44797.4621412037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45877.43789351852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45880</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44473</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44846</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>45036</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>45191.44642361111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44727</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>45224.29059027778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45678.61195601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45687.51572916667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45299</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45936.4841087963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45933</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45936.7499537037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45200.66553240741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45937.42376157407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>45154</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>45267.58851851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>45755.43791666667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>45938.62496527778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>45509.41997685185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>45761.4737037037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45735.54914351852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>45446.5096412037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>45072.47188657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>45936</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45722.31850694444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45735.54525462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>45735.55263888889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>45077</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>45723.38173611111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>45887.41344907408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>45887.40935185185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45945.65668981482</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>45198</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45069.45675925926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45946.55384259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>45945.51461805555</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44869</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45721.62189814815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>45945.6556712963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>45755.42185185185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>44461.92769675926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>45208.606875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>45208.61528935185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>45959</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>45496.4336574074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>45957.77280092592</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>45957.77527777778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45957.77659722222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>45957.77112268518</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>45915.58923611111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>45957.55767361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44270.51327546296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45915.59313657408</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45959.57356481482</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45965.61563657408</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45966</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44887</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45965.6125</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45965.5946412037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45238.35519675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>45965.62260416667</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>45149</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>45966</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>45392.52753472222</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45965.59960648148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>45965.63686342593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>45322</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>45967.36096064815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44805.40015046296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45967.35996527778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44936</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45328.8227662037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45589.50008101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45971.61780092592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>45971.5106712963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>45971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45972.60884259259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45019</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45971.61238425926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>45971.50793981482</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45029.47266203703</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45974.3296875</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45106.56295138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44970</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45114</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45972</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45124</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45769.45645833333</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45975.28524305556</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45707.31686342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45707.32047453704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45975.53834490741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45978.48587962963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45978.48710648148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45553.57829861111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45264</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45264.6027662037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45664.46695601852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45162.49752314815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45250.54054398148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45167</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45981.48473379629</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44559.38648148148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45981.48684027778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45517.62291666667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45985.47707175926</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45986.73809027778</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45986.73975694444</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45985.48043981481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45986.74592592593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45987</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45987</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45713.62402777778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>45188.56572916666</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>45987.5032175926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44642</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44642</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>45572.54373842593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>45572.54646990741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>45160.47324074074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>45714.56214120371</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>45989.57790509259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>45631.42819444444</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>45721.47923611111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45575</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45608.42292824074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44566.53696759259</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>45635.69366898148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>45993.31182870371</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45993.31612268519</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>45632.45001157407</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>45328.80174768518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>45328.80728009259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>45995.5971412037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>45204.53039351852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45371.57340277778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>46042.35530092593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45645.55663194445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45999.42320601852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>45684.38538194444</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45684.39165509259</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>45372.50608796296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>46042.35212962963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>46042.35357638889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>45554.5991087963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>45044.55335648148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>46044.46630787037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44608</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30326,7 +30326,7 @@
         <v>45642</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>46001.90171296296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>46001.91138888889</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>46001.91543981482</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30554,7 +30554,7 @@
         <v>46001.89836805555</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>45607.57563657407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>46045.59565972222</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30725,7 +30725,7 @@
         <v>45684.38679398148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>45684.38798611111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>45684.39041666667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30896,7 +30896,7 @@
         <v>46045.61560185185</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>46006.51974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44699.66025462963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>46003.54226851852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>46045.62143518519</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>46045.62228009259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>46006.62721064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>46006.65814814815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44698</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>45093.51523148148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>45173</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>46007.50670138889</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>46008.41601851852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>46007.50526620371</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45188.38519675926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>46049.57646990741</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>45769.48971064815</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>46010.51440972222</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>45274</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44678.49657407407</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>45258.65023148148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45194</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>45308</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>46055.38478009259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45688</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32326,7 +32326,7 @@
         <v>45239.45123842593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32383,7 +32383,7 @@
         <v>45252.34416666667</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44851</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>45278</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>46057.71150462963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45238</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>46057.70984953704</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>45720.30297453704</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>45306</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>45243.44351851852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44686.45782407407</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44909</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>46062.64864583333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>46062.65008101852</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45718.42078703704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45713.62721064815</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45734</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>45328.82097222222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>45265.51501157408</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>45272.7147337963</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>45320.63027777777</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>46064.50408564815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>46064.39121527778</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>45730.80828703703</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>46050</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44859.48170138889</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>45275</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>45758.38935185185</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>45264.49295138889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>45763.41162037037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>46066.57447916667</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>46066.31643518519</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>45278</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45357.36013888889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>46068.63875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>46068.6425</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45279.3218287037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44820</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>46030.63122685185</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>46029.43209490741</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>46030.61541666667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45509.36181712963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>46030.58255787037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45566.61018518519</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45610.54395833334</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45209</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>46034.49576388889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>45701.55280092593</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>46073.59069444444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45302</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45335</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>46034.50118055556</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44936</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>46034.48707175926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>45223</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>46073.52276620371</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>46073.51833333333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>46073.52184027778</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>46073.53856481481</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>46073.52071759259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>45308.41804398148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45308.49018518518</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44993.46795138889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>46073.591875</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>46031.40447916667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>46034.45233796296</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36205,7 +36205,7 @@
         <v>46031.38675925926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45590.45354166667</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45394.65023148148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>46035.60658564815</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36433,7 +36433,7 @@
         <v>46078.64333333333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44313</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36547,7 +36547,7 @@
         <v>46078.55690972223</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36604,7 +36604,7 @@
         <v>44652</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36661,7 +36661,7 @@
         <v>44840</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>45443.33925925926</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36775,7 +36775,7 @@
         <v>44985</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36832,7 +36832,7 @@
         <v>44928.46545138889</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36889,7 +36889,7 @@
         <v>45566.58208333333</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>46038.53915509259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>44970.42385416666</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>46037.34221064814</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>45607.43128472222</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45607.45059027777</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45200.66200231481</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>46079.54071759259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>46038.54834490741</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>45622.57844907408</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>45187</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>46038.4406712963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37583,7 +37583,7 @@
         <v>45203.71078703704</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>46080</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>46080</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>46080</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>46038.43708333333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37868,7 +37868,7 @@
         <v>45036.34731481481</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
         <v>44501.34291666667</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>45267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>44846.47868055556</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>45043</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38153,7 +38153,7 @@
         <v>44616.4834375</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45245.36645833333</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>45245.84946759259</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>45764.44802083333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>45221</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38438,7 +38438,7 @@
         <v>44971.56957175926</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>45474.56277777778</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>45642.63851851852</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         <v>44903.37894675926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>44642</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>44577.50803240741</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>45106</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38842,7 +38842,7 @@
         <v>44278</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         <v>45274</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38956,7 +38956,7 @@
         <v>44278</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>45175</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         <v>45112.41413194445</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>45509.55278935185</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39184,7 +39184,7 @@
         <v>45369.36841435185</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>45386.46412037037</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>45357.36957175926</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39355,7 +39355,7 @@
         <v>45563.50743055555</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39412,7 +39412,7 @@
         <v>45400.518125</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39469,7 +39469,7 @@
         <v>45604.63623842593</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39526,7 +39526,7 @@
         <v>45642.55597222222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>45078</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45372</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45009</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45328.62417824074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>45102.75549768518</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39873,7 +39873,7 @@
         <v>45105.33157407407</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39930,7 +39930,7 @@
         <v>45105.33609953704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39987,7 +39987,7 @@
         <v>45105.49415509259</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40044,7 +40044,7 @@
         <v>44727</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>45678.57498842593</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>45162.47753472222</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40215,7 +40215,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40272,7 +40272,7 @@
         <v>45105.49190972222</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>45105.49546296296</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         <v>45176</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45684.38881944444</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>45200</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45718.4666087963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>45567</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>45509.54403935185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>45758.42807870371</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>45664.46590277777</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40914,7 +40914,7 @@
         <v>45371.57876157408</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40976,7 +40976,7 @@
         <v>45463.4815625</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41033,7 +41033,7 @@
         <v>45596.56410879629</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41090,7 +41090,7 @@
         <v>45567</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41152,7 +41152,7 @@
         <v>45539.67039351852</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41209,7 +41209,7 @@
         <v>45664.46778935185</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>45547.28552083333</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>44552</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45278</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41494,7 +41494,7 @@
         <v>45505</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41551,7 +41551,7 @@
         <v>45167.53902777778</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41608,7 +41608,7 @@
         <v>45618.38481481482</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
         <v>45713.62260416667</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45687.51660879629</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45483</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45271</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41903,7 +41903,7 @@
         <v>45674.39175925926</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41960,7 +41960,7 @@
         <v>45667</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42017,7 +42017,7 @@
         <v>45204.35377314815</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45597.62469907408</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45229.31146990741</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45358.39027777778</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45687.4334375</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45684.64578703704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45705.65399305556</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45728</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42473,7 +42473,7 @@
         <v>45728</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42530,7 +42530,7 @@
         <v>45146</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42587,7 +42587,7 @@
         <v>45713.62856481481</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42649,7 +42649,7 @@
         <v>45713.63297453704</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45264.59965277778</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45667.48127314815</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45160.4716087963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45701.97775462963</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45777.66141203704</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45589.92590277778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45428.22497685185</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45783.60868055555</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45445</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45786.47188657407</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45547.27622685185</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45468</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45785.44539351852</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45785.4494675926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45243.44006944444</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45790.58230324074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45775.50077546296</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43680,7 +43680,7 @@
         <v>45561.4999537037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43737,7 +43737,7 @@
         <v>45642</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43794,7 +43794,7 @@
         <v>45723.62244212963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43851,7 +43851,7 @@
         <v>45796.58666666667</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43908,7 +43908,7 @@
         <v>45792.95465277778</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43965,7 +43965,7 @@
         <v>45796.81549768519</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44022,7 +44022,7 @@
         <v>45726.32118055555</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44079,7 +44079,7 @@
         <v>45674.5031712963</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>45797.39555555556</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44193,7 +44193,7 @@
         <v>45729.573125</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44250,7 +44250,7 @@
         <v>45800.27915509259</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44307,7 +44307,7 @@
         <v>45800.28173611111</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44364,7 +44364,7 @@
         <v>45439</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44421,7 +44421,7 @@
         <v>45750</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44478,7 +44478,7 @@
         <v>45804</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
